--- a/02-Avancado1-Funcoes/07-FuncoesProcuraLogicaExtra/Aula-30-ExcelAvancado1-CalculoIMC-FuncoesProcuraLogica.xlsx
+++ b/02-Avancado1-Funcoes/07-FuncoesProcuraLogicaExtra/Aula-30-ExcelAvancado1-CalculoIMC-FuncoesProcuraLogica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\08-FuncoesProcuraLogica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\07-FuncoesProcuraLogicaExtra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41613D16-33C8-44F2-9F80-5C601F9753E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6DA40C-2B8F-4B16-8287-FFFBC190C03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo de IMC" sheetId="2" r:id="rId1"/>
@@ -315,14 +315,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Cálculo da Faixa:</t>
+      <t>LÓGICA CÁLCULO DA FAIXA:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -340,9 +340,27 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Idade = "" = Sem Idade </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Idade = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">" "Sem Idade" </t>
     </r>
     <r>
       <rPr>
@@ -358,9 +376,26 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Procurar na Tabela de Faixas
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROCV na Tabela de Faixas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -371,14 +406,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Cálculo do Resultado:</t>
+      <t>LÓGICA CÁLCULO DO RESULTADO:</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -396,9 +431,27 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Circ. Abdominal = "" = Sem Circ. Abdôminal </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Circ. Abdominal = ""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Sem Circ. Abdôminal" </t>
     </r>
     <r>
       <rPr>
@@ -412,11 +465,20 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sexo = M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Sexo = M = Procurar na Tabela de Homens </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PROCV na Tabela de Homens </t>
     </r>
     <r>
       <rPr>
@@ -432,9 +494,9 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Procurar na Tabela de Mulheres
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PROCV na Tabela de Mulheres
 </t>
     </r>
     <r>
@@ -445,20 +507,139 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Cálculo de IMC:</t>
+      <t xml:space="preserve">LÓGICA CÁLCULO DE IMC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SE</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Altura = ""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Sem Altura, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Peso = ""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Sem Peso", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Altura &gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Peso &gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Peso dividido pela Altura elevado ao Quadrado (2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cálculo Resultado e Regime:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -470,29 +651,27 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Altura = "" = "Sem Altura, Peso = "" = "Sem Peso", E Altura &gt;0, Peso &gt;0 = Peso dividido pela Altura elevado ao Quadrado (2)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cálculo Resultado e Regime:</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMC = ""</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Sem IMC" </t>
     </r>
     <r>
       <rPr>
@@ -501,34 +680,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>SE</t>
+      <t>SENÃO</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> IMC = "" = Sem IMC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SENÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Procurar na Tabela de IMC</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PROCV na Tabela de IMC</t>
     </r>
   </si>
 </sst>
@@ -539,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -551,13 +712,14 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,10 +769,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1418,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
@@ -1859,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
